--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_8_3.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_8_3.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2142417.616199524</v>
+        <v>-2145305.57646969</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673435</v>
+        <v>603248.4937673429</v>
       </c>
     </row>
     <row r="9">
@@ -656,25 +656,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>296.2411725869737</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>219.3810393464434</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -707,25 +707,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>27.34774749477353</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -814,13 +814,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>101.7806877295493</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -829,16 +829,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>12.48161783084825</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -896,22 +896,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>401.0231311032746</v>
       </c>
       <c r="H5" t="n">
-        <v>223.4130984238327</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -944,7 +944,7 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>149.8794763036715</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1060,13 +1060,13 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1096,7 +1096,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1111,13 +1111,13 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>39.04196664247858</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1148,10 +1148,10 @@
         <v>412.9169039459368</v>
       </c>
       <c r="H8" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>118.4960408938903</v>
+        <v>31.86362911067723</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>66.1721652067267</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1294,16 +1294,16 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1339,10 +1339,10 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T10" t="n">
-        <v>37.23219723141037</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>105.4160224644339</v>
       </c>
     </row>
     <row r="11">
@@ -1379,7 +1379,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G11" t="n">
         <v>409.8033385187866</v>
@@ -1424,7 +1424,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1531,10 +1531,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1546,7 +1546,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1582,16 +1582,16 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>147.6895341487364</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>125.5687591261415</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1622,7 +1622,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444135</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1768,10 +1768,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1783,7 +1783,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>23.05950344416366</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,25 +1810,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>71.60395572454149</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1859,7 +1859,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -2005,22 +2005,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>1.799772605716619</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2056,7 +2056,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>147.3642529779079</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>41.33703994142957</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>127.1477159870288</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2296,7 +2296,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>65.67353929277157</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2713,16 +2713,16 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C28" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D28" t="n">
-        <v>124.3308255261727</v>
+        <v>124.330825526172</v>
       </c>
       <c r="E28" t="n">
         <v>122.1493151545295</v>
       </c>
       <c r="F28" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G28" t="n">
         <v>141.2394908002292</v>
@@ -2731,7 +2731,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I28" t="n">
-        <v>56.98118882652585</v>
+        <v>56.98118882652587</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>42.09059921808198</v>
+        <v>42.090599218082</v>
       </c>
       <c r="S28" t="n">
         <v>156.7416385096049</v>
@@ -2767,7 +2767,7 @@
         <v>193.1208028352486</v>
       </c>
       <c r="U28" t="n">
-        <v>261.8998268972044</v>
+        <v>261.8998268972045</v>
       </c>
       <c r="V28" t="n">
         <v>227.8529958317883</v>
@@ -2776,7 +2776,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X28" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y28" t="n">
         <v>194.3000058600551</v>
@@ -2840,13 +2840,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2953,7 +2953,7 @@
         <v>142.9621736065882</v>
       </c>
       <c r="D31" t="n">
-        <v>124.3308255261727</v>
+        <v>124.330825526172</v>
       </c>
       <c r="E31" t="n">
         <v>122.1493151545295</v>
@@ -2968,7 +2968,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652585</v>
+        <v>56.98118882652587</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3205,7 +3205,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652585</v>
+        <v>56.98118882652587</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3241,7 +3241,7 @@
         <v>193.1208028352486</v>
       </c>
       <c r="U34" t="n">
-        <v>261.8998268972044</v>
+        <v>261.8998268972045</v>
       </c>
       <c r="V34" t="n">
         <v>227.8529958317883</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3430,7 +3430,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F37" t="n">
         <v>121.1364005308915</v>
@@ -3442,7 +3442,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I37" t="n">
-        <v>56.9811888265258</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3475,7 +3475,7 @@
         <v>156.7416385096049</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U37" t="n">
         <v>261.8998268972044</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808193</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3797,7 +3797,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3904,7 +3904,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F43" t="n">
         <v>121.1364005308915</v>
@@ -3916,7 +3916,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I43" t="n">
-        <v>56.9811888265258</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U43" t="n">
         <v>261.8998268972044</v>
@@ -4150,10 +4150,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1749.341643278937</v>
+        <v>1208.954388996146</v>
       </c>
       <c r="C2" t="n">
-        <v>1749.341643278937</v>
+        <v>839.9918720557343</v>
       </c>
       <c r="D2" t="n">
-        <v>1749.341643278937</v>
+        <v>618.3948626148824</v>
       </c>
       <c r="E2" t="n">
-        <v>1363.553390680693</v>
+        <v>618.3948626148824</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4331,16 +4331,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4355,25 +4355,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2520.971603332393</v>
+        <v>2669.525103649764</v>
       </c>
       <c r="T2" t="n">
-        <v>2302.336936304455</v>
+        <v>2669.525103649764</v>
       </c>
       <c r="U2" t="n">
-        <v>2048.575150942547</v>
+        <v>2669.525103649764</v>
       </c>
       <c r="V2" t="n">
-        <v>2048.575150942547</v>
+        <v>2338.462216306194</v>
       </c>
       <c r="W2" t="n">
-        <v>2048.575150942547</v>
+        <v>1985.693561036079</v>
       </c>
       <c r="X2" t="n">
-        <v>2048.575150942547</v>
+        <v>1985.693561036079</v>
       </c>
       <c r="Y2" t="n">
-        <v>2048.575150942547</v>
+        <v>1595.554229060268</v>
       </c>
     </row>
     <row r="3">
@@ -4398,7 +4398,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4407,31 +4407,31 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>438.9553738610022</v>
+        <v>325.6879402326646</v>
       </c>
       <c r="C4" t="n">
-        <v>438.9553738610022</v>
+        <v>156.7517573047577</v>
       </c>
       <c r="D4" t="n">
-        <v>438.9553738610022</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>438.9553738610022</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>438.9553738610022</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>269.9555735993346</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>112.2072010318647</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>438.9553738610022</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>438.9553738610022</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W4" t="n">
-        <v>438.9553738610022</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X4" t="n">
-        <v>438.9553738610022</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y4" t="n">
-        <v>438.9553738610022</v>
+        <v>507.3364050629043</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1448.576038264086</v>
+        <v>1624.753525949915</v>
       </c>
       <c r="C5" t="n">
-        <v>1448.576038264086</v>
+        <v>1255.791009009504</v>
       </c>
       <c r="D5" t="n">
-        <v>1090.310339657335</v>
+        <v>1255.791009009504</v>
       </c>
       <c r="E5" t="n">
-        <v>704.5220870590908</v>
+        <v>870.0027564112595</v>
       </c>
       <c r="F5" t="n">
-        <v>697.5765863098874</v>
+        <v>459.0168516216519</v>
       </c>
       <c r="G5" t="n">
-        <v>279.6127782080742</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
         <v>53.94298182036445</v>
@@ -4565,13 +4565,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4592,25 +4592,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U5" t="n">
-        <v>2212.181128500977</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V5" t="n">
-        <v>2212.181128500977</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="W5" t="n">
-        <v>2212.181128500977</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="X5" t="n">
-        <v>1838.715370239897</v>
+        <v>2014.892857925727</v>
       </c>
       <c r="Y5" t="n">
-        <v>1448.576038264086</v>
+        <v>1624.753525949915</v>
       </c>
     </row>
     <row r="6">
@@ -4644,13 +4644,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
         <v>1194.968834417902</v>
@@ -4699,19 +4699,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>222.942782082032</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="C7" t="n">
-        <v>222.942782082032</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="D7" t="n">
-        <v>222.942782082032</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E7" t="n">
-        <v>222.942782082032</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F7" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
         <v>53.94298182036445</v>
@@ -4744,31 +4744,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>444.0275768541693</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>404.5912469122717</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>404.5912469122717</v>
+        <v>500.1394333084169</v>
       </c>
       <c r="Y7" t="n">
-        <v>404.5912469122717</v>
+        <v>500.1394333084169</v>
       </c>
     </row>
     <row r="8">
@@ -4778,49 +4778,49 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2028.908818305926</v>
+        <v>1623.178216428726</v>
       </c>
       <c r="C8" t="n">
-        <v>1659.946301365515</v>
+        <v>1254.215699488314</v>
       </c>
       <c r="D8" t="n">
-        <v>1301.680602758764</v>
+        <v>895.9500008815637</v>
       </c>
       <c r="E8" t="n">
-        <v>915.8923501605201</v>
+        <v>510.1617482833195</v>
       </c>
       <c r="F8" t="n">
-        <v>908.9468494113166</v>
+        <v>503.216247534116</v>
       </c>
       <c r="G8" t="n">
-        <v>491.8590676477442</v>
+        <v>86.12846577054347</v>
       </c>
       <c r="H8" t="n">
-        <v>173.6359524202537</v>
+        <v>86.12846577054347</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>242.5828808341008</v>
+        <v>75.17723181374775</v>
       </c>
       <c r="K8" t="n">
-        <v>646.0499938541462</v>
+        <v>478.6443448337932</v>
       </c>
       <c r="L8" t="n">
-        <v>1198.863252100346</v>
+        <v>661.4897982516954</v>
       </c>
       <c r="M8" t="n">
-        <v>1385.562664925753</v>
+        <v>848.1892110771031</v>
       </c>
       <c r="N8" t="n">
-        <v>1579.896877817736</v>
+        <v>1475.49687913695</v>
       </c>
       <c r="O8" t="n">
-        <v>2127.058082584813</v>
+        <v>2022.658083904027</v>
       </c>
       <c r="P8" t="n">
-        <v>2556.373128924107</v>
+        <v>2451.973130243322</v>
       </c>
       <c r="Q8" t="n">
         <v>2697.149091018222</v>
@@ -4829,25 +4829,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2630.308520102337</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2415.508658370048</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2415.508658370048</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V8" t="n">
-        <v>2415.508658370048</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W8" t="n">
-        <v>2415.508658370048</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="X8" t="n">
-        <v>2415.508658370048</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="Y8" t="n">
-        <v>2415.508658370048</v>
+        <v>1623.178216428726</v>
       </c>
     </row>
     <row r="9">
@@ -4881,25 +4881,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>172.6022336772601</v>
       </c>
       <c r="K9" t="n">
-        <v>383.3713861261743</v>
+        <v>502.03063798307</v>
       </c>
       <c r="L9" t="n">
-        <v>887.7329259922928</v>
+        <v>1006.392177849189</v>
       </c>
       <c r="M9" t="n">
-        <v>1067.230262346898</v>
+        <v>1185.889514203793</v>
       </c>
       <c r="N9" t="n">
-        <v>1640.147320825857</v>
+        <v>1432.170805967367</v>
       </c>
       <c r="O9" t="n">
-        <v>2189.58332957858</v>
+        <v>1981.606814720089</v>
       </c>
       <c r="P9" t="n">
-        <v>2613.551098059417</v>
+        <v>2405.574583200926</v>
       </c>
       <c r="Q9" t="n">
         <v>2636.288039261394</v>
@@ -4936,19 +4936,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>498.8626623130036</v>
+        <v>222.5498268249811</v>
       </c>
       <c r="C10" t="n">
-        <v>498.8626623130036</v>
+        <v>222.5498268249811</v>
       </c>
       <c r="D10" t="n">
-        <v>348.7460229006679</v>
+        <v>222.5498268249811</v>
       </c>
       <c r="E10" t="n">
-        <v>200.8329293182748</v>
+        <v>222.5498268249811</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>222.5498268249811</v>
       </c>
       <c r="G10" t="n">
         <v>53.94298182036445</v>
@@ -4987,25 +4987,25 @@
         <v>1053.877663279709</v>
       </c>
       <c r="S10" t="n">
-        <v>1053.877663279709</v>
+        <v>846.4373785321145</v>
       </c>
       <c r="T10" t="n">
-        <v>1016.269383247982</v>
+        <v>846.4373785321145</v>
       </c>
       <c r="U10" t="n">
-        <v>1016.269383247982</v>
+        <v>846.4373785321145</v>
       </c>
       <c r="V10" t="n">
-        <v>1016.269383247982</v>
+        <v>846.4373785321145</v>
       </c>
       <c r="W10" t="n">
-        <v>726.852213211021</v>
+        <v>557.0202084951538</v>
       </c>
       <c r="X10" t="n">
-        <v>498.8626623130036</v>
+        <v>329.0306575971365</v>
       </c>
       <c r="Y10" t="n">
-        <v>498.8626623130036</v>
+        <v>222.5498268249811</v>
       </c>
     </row>
     <row r="11">
@@ -5021,10 +5021,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
         <v>793.7736536168611</v>
@@ -5042,22 +5042,22 @@
         <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852255</v>
@@ -5075,13 +5075,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5127,7 +5127,7 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1268.578514636218</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
         <v>1896.176478190825</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>653.7474797708871</v>
+        <v>869.6905094135296</v>
       </c>
       <c r="C13" t="n">
-        <v>484.8112968429803</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D13" t="n">
-        <v>484.8112968429803</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E13" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5230,19 +5230,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1573.595244679635</v>
+        <v>1561.54872342426</v>
       </c>
       <c r="W13" t="n">
-        <v>1284.178074642674</v>
+        <v>1272.131553387299</v>
       </c>
       <c r="X13" t="n">
-        <v>1056.188523744657</v>
+        <v>1272.131553387299</v>
       </c>
       <c r="Y13" t="n">
-        <v>835.3959446011269</v>
+        <v>1051.338974243769</v>
       </c>
     </row>
     <row r="14">
@@ -5252,34 +5252,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5288,16 +5288,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
@@ -5309,19 +5309,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="15">
@@ -5364,13 +5364,13 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1072.713683962606</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P15" t="n">
         <v>2319.799627685893</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>741.8431516380886</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C16" t="n">
-        <v>572.9069687101817</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D16" t="n">
-        <v>572.9069687101817</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E16" t="n">
-        <v>572.9069687101817</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F16" t="n">
-        <v>426.0170212122713</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G16" t="n">
-        <v>258.8209219271512</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>117.1090907693493</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>2090.842153176861</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X16" t="n">
-        <v>1144.284195611858</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y16" t="n">
-        <v>923.4916164683283</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="17">
@@ -5495,40 +5495,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5549,13 +5549,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5601,19 +5601,19 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N18" t="n">
-        <v>1670.092171589158</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D19" t="n">
-        <v>555.8158034133954</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E19" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1722.776592304621</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1433.359422267661</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>1205.369871369643</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5744,34 +5744,34 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793925</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N21" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>653.7474797708871</v>
+        <v>768.5380889459586</v>
       </c>
       <c r="C22" t="n">
-        <v>484.8112968429803</v>
+        <v>640.1060525954244</v>
       </c>
       <c r="D22" t="n">
-        <v>484.8112968429803</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429803</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1398.968683817746</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>950.1865537761984</v>
       </c>
     </row>
     <row r="23">
@@ -5963,19 +5963,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362683</v>
@@ -5984,13 +5984,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -5999,16 +5999,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6020,19 +6020,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C25" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D25" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2380.626175203724</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2380.626175203724</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>2380.626175203724</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>2091.550948547922</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1836.866460342035</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1547.449290305074</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>1319.459739407057</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>1098.667160263527</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6212,31 +6212,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6300,31 +6300,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1074.481071167373</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1702.079034721979</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,10 +6358,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>926.9575315319327</v>
+        <v>926.9575315319321</v>
       </c>
       <c r="C28" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656814</v>
       </c>
       <c r="D28" t="n">
         <v>656.9646031150025</v>
@@ -6379,7 +6379,7 @@
         <v>151.373419438402</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>198.094482495415</v>
@@ -6409,7 +6409,7 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S28" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T28" t="n">
         <v>2243.385329532432</v>
@@ -6424,7 +6424,7 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X28" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y28" t="n">
         <v>1084.076049400516</v>
@@ -6449,61 +6449,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,16 +6534,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
         <v>1074.481071167373</v>
@@ -6552,13 +6552,13 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1896.176478190825</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6595,10 +6595,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.9575315319328</v>
+        <v>926.9575315319321</v>
       </c>
       <c r="C31" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656814</v>
       </c>
       <c r="D31" t="n">
         <v>656.9646031150025</v>
@@ -6613,19 +6613,19 @@
         <v>268.5553036345477</v>
       </c>
       <c r="H31" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384021</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K31" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L31" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M31" t="n">
         <v>1344.317444979286</v>
@@ -6646,7 +6646,7 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S31" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T31" t="n">
         <v>2243.385329532432</v>
@@ -6655,13 +6655,13 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V31" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W31" t="n">
         <v>1483.798285518751</v>
       </c>
       <c r="X31" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y31" t="n">
         <v>1084.076049400516</v>
@@ -6686,19 +6686,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075809</v>
@@ -6710,10 +6710,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6774,22 +6774,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319321</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656815</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580112</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345474</v>
       </c>
       <c r="H34" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384017</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K34" t="n">
-        <v>483.8255460380727</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L34" t="n">
-        <v>898.265941231132</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M34" t="n">
         <v>1344.317444979286</v>
@@ -6877,13 +6877,13 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q34" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717216</v>
       </c>
       <c r="R34" t="n">
         <v>2596.781734931274</v>
       </c>
       <c r="S34" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T34" t="n">
         <v>2243.385329532432</v>
@@ -6892,13 +6892,13 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W34" t="n">
         <v>1483.798285518751</v>
       </c>
       <c r="X34" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y34" t="n">
         <v>1084.076049400516</v>
@@ -6926,19 +6926,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6947,10 +6947,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7011,31 +7011,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1859.536823237711</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319327</v>
+        <v>926.9575315319321</v>
       </c>
       <c r="C37" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656815</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150025</v>
+        <v>656.964603115002</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942651</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580113</v>
+        <v>411.221455958011</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345472</v>
       </c>
       <c r="H37" t="n">
-        <v>151.3734194384019</v>
+        <v>151.3734194384016</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380729</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7117,16 +7117,16 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T37" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V37" t="n">
         <v>1748.685508594055</v>
@@ -7135,7 +7135,7 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y37" t="n">
         <v>1084.076049400516</v>
@@ -7160,7 +7160,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7169,13 +7169,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7184,16 +7184,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7248,25 +7248,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1814.118720444889</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
         <v>2553.061288060775</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656819</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150024</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F40" t="n">
         <v>411.2214559580116</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H40" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K40" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380727</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7357,7 +7357,7 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T40" t="n">
         <v>2243.385329532432</v>
@@ -7397,7 +7397,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7406,25 +7406,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7445,13 +7445,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7485,28 +7485,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1814.118720444889</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319317</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656811</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150016</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942648</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580112</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K43" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L43" t="n">
-        <v>898.265941231132</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7588,31 +7588,31 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q43" t="n">
-        <v>2639.297491717214</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T43" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594054</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y43" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="44">
@@ -7634,22 +7634,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1814.118720444889</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7786,31 +7786,31 @@
         <v>782.5512955656818</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150024</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380724</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311318</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -8055,10 +8055,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142008</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8301,7 +8301,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>422.2865794093296</v>
+        <v>346.2692436516228</v>
       </c>
       <c r="N6" t="n">
         <v>479.3423743435536</v>
@@ -8450,19 +8450,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
-        <v>417.6612145504504</v>
+        <v>43.95636118853434</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O8" t="n">
         <v>380.8001812627454</v>
@@ -8471,7 +8471,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q8" t="n">
-        <v>106.860446537899</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>6.233205181928369</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8541,7 +8541,7 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>378.0407240669645</v>
+        <v>48.10560617263477</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8933,7 +8933,7 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -9161,7 +9161,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>-4.697864023994398e-14</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>-3.278155982465659e-13</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9872,7 +9872,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -10358,7 +10358,7 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>-1.250555214937776e-12</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
@@ -10829,7 +10829,7 @@
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -10844,7 +10844,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>-3.278155982465659e-13</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -22544,25 +22544,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>86.4926690765069</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>284.4492920715796</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22592,28 +22592,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>147.067965314198</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -23312,7 +23312,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23419,10 +23419,10 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23434,7 +23434,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856724</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23470,16 +23470,16 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>138.4949402405077</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>126.5688841976865</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23656,10 +23656,10 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23671,7 +23671,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>58.20633287440187</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,22 +23701,22 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>180.5336875992865</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23893,22 +23893,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>138.4949402405072</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23944,7 +23944,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>71.22040037418685</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24124,25 +24124,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>138.4949402405077</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>40.09910511159899</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24184,7 +24184,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24361,28 +24361,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,13 +24409,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0.7017074173501214</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24604,7 +24604,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-13</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24841,7 +24841,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-13</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -26314,10 +26314,10 @@
         <v>48691.36674215491</v>
       </c>
       <c r="C2" t="n">
-        <v>61578.13273982122</v>
+        <v>61578.13273982124</v>
       </c>
       <c r="D2" t="n">
-        <v>61578.13273982127</v>
+        <v>61578.13273982129</v>
       </c>
       <c r="E2" t="n">
         <v>60535.99497675044</v>
@@ -26326,31 +26326,31 @@
         <v>60535.99497675046</v>
       </c>
       <c r="G2" t="n">
-        <v>60535.99497675046</v>
+        <v>60535.99497675044</v>
       </c>
       <c r="H2" t="n">
-        <v>60535.99497675046</v>
+        <v>60535.99497675043</v>
       </c>
       <c r="I2" t="n">
-        <v>60535.99497675046</v>
+        <v>60535.99497675044</v>
       </c>
       <c r="J2" t="n">
-        <v>61578.13273982125</v>
+        <v>61578.13273982119</v>
       </c>
       <c r="K2" t="n">
-        <v>61578.13273982119</v>
+        <v>61578.13273982117</v>
       </c>
       <c r="L2" t="n">
-        <v>61578.13273982126</v>
+        <v>61578.13273982117</v>
       </c>
       <c r="M2" t="n">
+        <v>61578.13273982127</v>
+      </c>
+      <c r="N2" t="n">
         <v>61578.13273982124</v>
       </c>
-      <c r="N2" t="n">
-        <v>61578.13273982125</v>
-      </c>
       <c r="O2" t="n">
-        <v>61578.13273982126</v>
+        <v>61578.13273982127</v>
       </c>
       <c r="P2" t="n">
         <v>61578.13273982125</v>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26427,37 +26427,37 @@
         <v>5677.536566682745</v>
       </c>
       <c r="F4" t="n">
-        <v>5677.536566682751</v>
+        <v>5677.536566682749</v>
       </c>
       <c r="G4" t="n">
-        <v>5677.536566682745</v>
+        <v>5677.536566682744</v>
       </c>
       <c r="H4" t="n">
-        <v>5677.536566682744</v>
+        <v>5677.536566682749</v>
       </c>
       <c r="I4" t="n">
-        <v>5677.536566682745</v>
+        <v>5677.536566682736</v>
       </c>
       <c r="J4" t="n">
+        <v>13668.39582977619</v>
+      </c>
+      <c r="K4" t="n">
+        <v>13668.39582977616</v>
+      </c>
+      <c r="L4" t="n">
+        <v>13668.39582977617</v>
+      </c>
+      <c r="M4" t="n">
+        <v>13668.39582977622</v>
+      </c>
+      <c r="N4" t="n">
         <v>13668.39582977621</v>
       </c>
-      <c r="K4" t="n">
-        <v>13668.3958297762</v>
-      </c>
-      <c r="L4" t="n">
-        <v>13668.3958297762</v>
-      </c>
-      <c r="M4" t="n">
+      <c r="O4" t="n">
+        <v>13668.39582977622</v>
+      </c>
+      <c r="P4" t="n">
         <v>13668.39582977621</v>
-      </c>
-      <c r="N4" t="n">
-        <v>13668.39582977623</v>
-      </c>
-      <c r="O4" t="n">
-        <v>13668.39582977623</v>
-      </c>
-      <c r="P4" t="n">
-        <v>13668.39582977622</v>
       </c>
     </row>
     <row r="5">
@@ -26519,7 +26519,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-735986.7827719058</v>
+        <v>-736416.3416384947</v>
       </c>
       <c r="C6" t="n">
         <v>-231203.3607866215</v>
@@ -26528,19 +26528,19 @@
         <v>-387007.1668804165</v>
       </c>
       <c r="E6" t="n">
-        <v>-817316.7627946457</v>
+        <v>-817351.5007200814</v>
       </c>
       <c r="F6" t="n">
-        <v>-46264.0714138394</v>
+        <v>-46298.8093392751</v>
       </c>
       <c r="G6" t="n">
-        <v>-46264.0714138394</v>
+        <v>-46298.8093392751</v>
       </c>
       <c r="H6" t="n">
-        <v>-46264.0714138394</v>
+        <v>-46298.80933927508</v>
       </c>
       <c r="I6" t="n">
-        <v>-46264.0714138394</v>
+        <v>-46298.8093392751</v>
       </c>
       <c r="J6" t="n">
         <v>-251105.3161300951</v>
@@ -26549,7 +26549,7 @@
         <v>-55254.3789438704</v>
       </c>
       <c r="L6" t="n">
-        <v>-55254.37894387034</v>
+        <v>-55254.3789438704</v>
       </c>
       <c r="M6" t="n">
         <v>-179462.8896519289</v>
@@ -26558,7 +26558,7 @@
         <v>-55254.37894387037</v>
       </c>
       <c r="O6" t="n">
-        <v>-74682.09693750212</v>
+        <v>-74682.09693750209</v>
       </c>
       <c r="P6" t="n">
         <v>-55254.37894387037</v>
@@ -26707,22 +26707,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
+        <v>24.28464749203965</v>
+      </c>
+      <c r="K2" t="n">
+        <v>24.28464749203965</v>
+      </c>
+      <c r="L2" t="n">
+        <v>24.28464749203965</v>
+      </c>
+      <c r="M2" t="n">
         <v>24.2846474920397</v>
       </c>
-      <c r="K2" t="n">
-        <v>24.28464749203968</v>
-      </c>
-      <c r="L2" t="n">
-        <v>24.28464749203968</v>
-      </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>24.28464749203973</v>
       </c>
-      <c r="N2" t="n">
-        <v>24.28464749203974</v>
-      </c>
       <c r="O2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P2" t="n">
         <v>24.28464749203973</v>
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
@@ -26814,7 +26814,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
@@ -26938,7 +26938,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>4.973799150320701e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27379,10 +27379,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>80.82359969942792</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>135.3020022742396</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27424,7 +27424,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -27534,13 +27534,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>46.83478528866308</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27549,16 +27549,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>122.48400396149</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,7 +27582,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27591,7 +27591,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27603,7 +27603,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27616,22 +27616,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>12.76103891752035</v>
       </c>
       <c r="H5" t="n">
-        <v>100.5096743405245</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -27664,7 +27664,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>29.95250387826584</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27780,13 +27780,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27816,7 +27816,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -27831,13 +27831,13 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>247.4810316941124</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27868,10 +27868,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>86.63241178321307</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>88.48072192141348</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U8" t="n">
         <v>251.1547862223006</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28014,16 +28014,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.9207765545704</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>152.7120966692326</v>
@@ -28059,10 +28059,10 @@
         <v>129.1731816677913</v>
       </c>
       <c r="S10" t="n">
-        <v>205.3658819001186</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>186.1407074893483</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U10" t="n">
         <v>286.260654658097</v>
@@ -28077,7 +28077,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>113.1686308876609</v>
       </c>
     </row>
     <row r="11">
@@ -28099,7 +28099,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -28342,7 +28342,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28579,7 +28579,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28798,7 +28798,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203965</v>
       </c>
       <c r="C28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203965</v>
       </c>
       <c r="D28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203965</v>
       </c>
       <c r="E28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203965</v>
       </c>
       <c r="F28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203965</v>
       </c>
       <c r="G28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203965</v>
       </c>
       <c r="H28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203965</v>
       </c>
       <c r="I28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203965</v>
       </c>
       <c r="J28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203965</v>
       </c>
       <c r="K28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203965</v>
       </c>
       <c r="L28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203965</v>
       </c>
       <c r="M28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203965</v>
       </c>
       <c r="N28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203965</v>
       </c>
       <c r="O28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203965</v>
       </c>
       <c r="P28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203965</v>
       </c>
       <c r="Q28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203965</v>
       </c>
       <c r="R28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203965</v>
       </c>
       <c r="S28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203965</v>
       </c>
       <c r="T28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203965</v>
       </c>
       <c r="U28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203965</v>
       </c>
       <c r="V28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203965</v>
       </c>
       <c r="W28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203965</v>
       </c>
       <c r="X28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203965</v>
       </c>
       <c r="Y28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203965</v>
       </c>
     </row>
     <row r="29">
@@ -29566,7 +29566,7 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>-6.536993168992922e-13</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203965</v>
       </c>
       <c r="C31" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203965</v>
       </c>
       <c r="D31" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203965</v>
       </c>
       <c r="E31" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203965</v>
       </c>
       <c r="F31" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203965</v>
       </c>
       <c r="G31" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203965</v>
       </c>
       <c r="H31" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203965</v>
       </c>
       <c r="I31" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203965</v>
       </c>
       <c r="J31" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203965</v>
       </c>
       <c r="K31" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203965</v>
       </c>
       <c r="L31" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203965</v>
       </c>
       <c r="M31" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203965</v>
       </c>
       <c r="N31" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203965</v>
       </c>
       <c r="O31" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203965</v>
       </c>
       <c r="P31" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203965</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203965</v>
       </c>
       <c r="R31" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203965</v>
       </c>
       <c r="S31" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203965</v>
       </c>
       <c r="T31" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203965</v>
       </c>
       <c r="U31" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203965</v>
       </c>
       <c r="V31" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203965</v>
       </c>
       <c r="W31" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203965</v>
       </c>
       <c r="X31" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203965</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203965</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203965</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203965</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203965</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203965</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203965</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203965</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203965</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203965</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203965</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203965</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203965</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203965</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203965</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203965</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203965</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203965</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203965</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203965</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203965</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203965</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203965</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203965</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203965</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203965</v>
       </c>
     </row>
     <row r="35">
@@ -29983,7 +29983,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="41">
@@ -30517,7 +30517,7 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="44">
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31847,10 +31847,10 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>339.9772972286971</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>359.7096985496635</v>
       </c>
       <c r="O12" t="n">
         <v>142.5962444444444</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,10 +32066,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32078,37 +32078,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>416.4300581532619</v>
       </c>
       <c r="N15" t="n">
-        <v>405.6377363145776</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,10 +32303,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32315,37 +32315,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>405.637736314577</v>
       </c>
       <c r="O18" t="n">
-        <v>333.9544784328825</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>339.9772972286967</v>
       </c>
       <c r="N21" t="n">
-        <v>320.9147064709964</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,10 +32777,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32789,37 +32789,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>377.6350660745956</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,10 +33014,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33026,37 +33026,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>301.6445156724565</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,10 +33251,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33263,37 +33263,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>357.9244589488886</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,31 +33488,31 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>446.0127311990643</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33524,13 +33524,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159414</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>473.8581708471803</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,34 +33962,34 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -33998,13 +33998,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162548</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>225.4828684302377</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34378,7 +34378,7 @@
         <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
         <v>926.5868626460027</v>
@@ -34442,13 +34442,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
@@ -34460,16 +34460,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>188.4731159523455</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,10 +34775,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>138.389756104752</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34787,16 +34787,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35021,7 +35021,7 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>486.0228424856235</v>
+        <v>410.0055067279167</v>
       </c>
       <c r="N6" t="n">
         <v>559.3197334338902</v>
@@ -35170,19 +35170,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.5453525391276</v>
+        <v>21.44873736705384</v>
       </c>
       <c r="K8" t="n">
         <v>407.5425384040863</v>
       </c>
       <c r="L8" t="n">
-        <v>558.3972305517163</v>
+        <v>184.6923771898002</v>
       </c>
       <c r="M8" t="n">
         <v>188.5852654802098</v>
       </c>
       <c r="N8" t="n">
-        <v>196.2971847393761</v>
+        <v>633.6441091513602</v>
       </c>
       <c r="O8" t="n">
         <v>552.6880856233105</v>
@@ -35191,7 +35191,7 @@
         <v>433.6515619588832</v>
       </c>
       <c r="Q8" t="n">
-        <v>142.1979415092072</v>
+        <v>247.6524856312129</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>119.8578301584805</v>
       </c>
       <c r="K9" t="n">
         <v>332.7559639452625</v>
@@ -35261,7 +35261,7 @@
         <v>181.3104407622271</v>
       </c>
       <c r="N9" t="n">
-        <v>578.7040994736965</v>
+        <v>248.7689815793668</v>
       </c>
       <c r="O9" t="n">
         <v>554.9858674269929</v>
@@ -35270,7 +35270,7 @@
         <v>428.2502711927643</v>
       </c>
       <c r="Q9" t="n">
-        <v>22.96660727472423</v>
+        <v>233.0438950105733</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35495,10 +35495,10 @@
         <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>197.8432633066788</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>228.3679864663302</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902952</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35729,22 +35729,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>274.2960242312436</v>
       </c>
       <c r="N15" t="n">
-        <v>274.2960242312443</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396405</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35966,25 +35966,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>274.2960242312436</v>
       </c>
       <c r="O18" t="n">
-        <v>191.358233988438</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,7 +36194,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36203,25 +36203,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>197.8432633066783</v>
       </c>
       <c r="N21" t="n">
-        <v>189.5729943876631</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36440,25 +36440,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>235.5010321525773</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36677,25 +36677,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>159.048271228012</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36756,7 +36756,7 @@
         <v>288.6172359016746</v>
       </c>
       <c r="L28" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M28" t="n">
         <v>450.5570744930848</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,7 +36905,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36914,22 +36914,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>226.5827468655553</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,13 +36987,13 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>105.331130754993</v>
+        <v>105.3311307549931</v>
       </c>
       <c r="K31" t="n">
         <v>288.6172359016746</v>
       </c>
       <c r="L31" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M31" t="n">
         <v>450.5570744930848</v>
@@ -37005,7 +37005,7 @@
         <v>397.5465471980851</v>
       </c>
       <c r="P31" t="n">
-        <v>319.9164207986646</v>
+        <v>319.9164207986647</v>
       </c>
       <c r="Q31" t="n">
         <v>144.686904791938</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193505</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,7 +37142,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37151,16 +37151,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
-        <v>303.8786972770459</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37224,13 +37224,13 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>105.331130754993</v>
+        <v>105.3311307549931</v>
       </c>
       <c r="K34" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L34" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M34" t="n">
         <v>450.5570744930848</v>
@@ -37242,7 +37242,7 @@
         <v>397.5465471980851</v>
       </c>
       <c r="P34" t="n">
-        <v>319.9164207986646</v>
+        <v>319.9164207986647</v>
       </c>
       <c r="Q34" t="n">
         <v>144.686904791938</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193505</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>342.516458763847</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37464,19 +37464,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N37" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P37" t="n">
         <v>319.9164207986647</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902952</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,28 +37616,28 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37710,10 +37710,10 @@
         <v>450.5570744930849</v>
       </c>
       <c r="N40" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P40" t="n">
         <v>319.9164207986647</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462675</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,31 +37853,31 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>82.88662398579324</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37938,19 +37938,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N43" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P43" t="n">
         <v>319.9164207986647</v>
@@ -38026,7 +38026,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
         <v>696.488651224316</v>
@@ -38090,13 +38090,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
@@ -38108,16 +38108,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>45.87687150790109</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
